--- a/tests/data/output/single_sample_reports/sdb_soliddist.xlsx
+++ b/tests/data/output/single_sample_reports/sdb_soliddist.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>471 K</t>
+          <t>198 C</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>495 K</t>
+          <t>222 C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>579 K</t>
+          <t>305 C</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>678 K</t>
+          <t>405 C</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>777 K</t>
+          <t>504 C</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>876 K</t>
+          <t>602 C</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1223 K</t>
+          <t>950 C</t>
         </is>
       </c>
     </row>
